--- a/branches/hiv-recency-test-resource--FIG-55/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/hiv-recency-test-resource--FIG-55/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T06:57:07+00:00</t>
+    <t>2023-02-21T14:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hiv-recency-test-resource--FIG-55/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/hiv-recency-test-resource--FIG-55/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T14:16:30+00:00</t>
+    <t>2023-02-22T07:24:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hiv-recency-test-resource--FIG-55/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/hiv-recency-test-resource--FIG-55/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T07:24:35+00:00</t>
+    <t>2023-02-22T11:00:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -885,7 +885,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-cbs/ValueSet/vs-hiv-diagnosis</t>
+    <t>http://openhie.org/fhir/hiv-cbs/ValueSet/vs-condition</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1640,7 +1640,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.71484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.7109375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
